--- a/IPC2024_base2010/imputacion/indxbase2010_5.xlsx
+++ b/IPC2024_base2010/imputacion/indxbase2010_5.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="indrep_5" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="indgen_5" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="indrep_div_5" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="indrep2010_5" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="indgen2010_5" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="indrepdiv2010_5" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +454,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>178.7984750720913</v>
+        <v>178.7984095869285</v>
       </c>
     </row>
   </sheetData>
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>144.6246064908226</v>
+        <v>144.6251953863537</v>
       </c>
     </row>
     <row r="3">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>277.5122163772498</v>
+        <v>277.5121998866816</v>
       </c>
     </row>
     <row r="4">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.3560962927722</v>
+        <v>163.3560173333212</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>281.4204881060539</v>
+        <v>281.4202299351375</v>
       </c>
     </row>
     <row r="6">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159.0941066410656</v>
+        <v>159.0939367321436</v>
       </c>
     </row>
     <row r="7">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>161.1518355460999</v>
+        <v>161.150738991204</v>
       </c>
     </row>
     <row r="8">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>253.74198563547</v>
+        <v>253.7415722989886</v>
       </c>
     </row>
     <row r="9">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>293.9430604426141</v>
+        <v>293.9430404746414</v>
       </c>
     </row>
     <row r="3">
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>131.2212922403028</v>
+        <v>131.2213031153381</v>
       </c>
     </row>
     <row r="4">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>120.4605061997469</v>
+        <v>120.4604860494903</v>
       </c>
     </row>
     <row r="5">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>131.5097719178598</v>
+        <v>131.5098559064464</v>
       </c>
     </row>
     <row r="7">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>136.6300581899121</v>
+        <v>136.6307384657705</v>
       </c>
     </row>
     <row r="8">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>139.086705470774</v>
+        <v>139.0845945697698</v>
       </c>
     </row>
     <row r="9">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>111.1023658581306</v>
+        <v>111.102445287375</v>
       </c>
     </row>
     <row r="10">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>134.9297953562524</v>
+        <v>134.9298317106767</v>
       </c>
     </row>
     <row r="11">
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>153.2889551480825</v>
+        <v>153.2900513103646</v>
       </c>
     </row>
     <row r="13">
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>138.0942728835676</v>
+        <v>138.0945697454199</v>
       </c>
     </row>
   </sheetData>
